--- a/data/outputs/能源化工元源数据文件/36Journal of Renewable and Sustainable Energy.xlsx
+++ b/data/outputs/能源化工元源数据文件/36Journal of Renewable and Sustainable Energy.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ257"/>
+  <dimension ref="A1:BR257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -903,6 +908,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4945142</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1112,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4918582</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1297,6 +1312,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4827520</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1496,6 +1516,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4920651</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1691,6 +1716,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4829980</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1882,6 +1912,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4740923</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2085,6 +2120,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4942742</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2284,6 +2324,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4913461</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2483,6 +2528,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4807141</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2565,7 +2615,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Nema, savita/0000-0002-9570-6078; </t>
+          <t>Nema, savita/0000-0002-9570-6078;</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr"/>
@@ -2682,6 +2732,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4813262</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2873,6 +2928,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4743338</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3068,6 +3128,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4854834</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3267,6 +3332,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4761139</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3474,6 +3544,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4835365</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3673,6 +3748,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4789334</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3880,6 +3960,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4832631</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3967,7 +4052,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t> [PON02-000153-2939551]</t>
+          <t>[PON02-000153-2939551]</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4087,6 +4172,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4947509</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4274,6 +4364,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4724324</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4481,6 +4576,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4816801</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4684,6 +4784,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4883,6 +4984,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4951708</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5082,6 +5188,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4811974</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5289,6 +5400,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4923587</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5484,6 +5600,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4949225</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5683,6 +5804,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4734184</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5882,6 +6008,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4941400</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6073,6 +6204,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4939128</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6276,6 +6412,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4946644</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6471,6 +6612,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4924169</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6670,6 +6816,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4762943</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6865,6 +7016,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4735281</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7072,6 +7228,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4804219</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7271,6 +7432,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4898705</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7478,6 +7644,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4944046</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7677,6 +7848,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4837772</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7868,6 +8044,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4759868</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8067,6 +8248,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4896765</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8262,6 +8448,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4974504</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8461,6 +8652,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4953887</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8656,6 +8852,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4824461</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8855,6 +9056,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4881553</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9054,6 +9260,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4948480</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9245,6 +9456,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4916041</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9444,6 +9660,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4469762</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9639,6 +9860,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4537864</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9842,6 +10068,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4668182</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10041,6 +10272,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4674981</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10232,6 +10468,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4711132</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10431,6 +10672,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4707301</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10630,6 +10876,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4544257</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10813,6 +11064,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4548990</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11008,6 +11264,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4553817</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11207,6 +11468,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4682509</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11406,6 +11672,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4587449</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11593,6 +11864,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4680211</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11772,6 +12048,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>4708291</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11951,6 +12232,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>4643691</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12150,6 +12436,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4671907</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12349,6 +12640,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4662949</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12544,6 +12840,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4525046</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12743,6 +13044,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4530791</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12938,6 +13244,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>4673331</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13145,6 +13456,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>4647651</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13332,6 +13648,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>4649402</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13535,6 +13856,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4542514</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13742,6 +14068,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4465795</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13929,6 +14260,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4669710</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14124,6 +14460,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>4529602</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14323,6 +14664,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>4709918</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14526,6 +14872,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4467751</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14717,6 +15068,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4602841</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14924,6 +15280,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>4579826</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15115,6 +15476,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>4665069</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15318,6 +15684,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4671058</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15517,6 +15888,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>4422281</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15724,6 +16100,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>4477800</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15923,6 +16304,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>4429203</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16126,6 +16512,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>4286582</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16317,6 +16708,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4440089</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16504,6 +16900,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4386391</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -16703,6 +17104,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>4305886</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16898,6 +17304,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4478919</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17101,6 +17512,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4312056</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17300,6 +17716,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>4481652</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17491,6 +17912,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>4293001</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17690,6 +18116,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4305211</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17877,6 +18308,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4363224</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18076,6 +18512,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>4338699</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18263,6 +18704,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>4472804</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18462,6 +18908,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -18661,6 +19108,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>4236498</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -18864,6 +19316,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>4372015</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19071,6 +19528,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>4413932</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19278,6 +19740,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4418367</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19485,6 +19952,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>4480122</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -19676,6 +20148,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -19875,6 +20348,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4301157</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20074,6 +20552,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>4457730</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20269,6 +20752,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>4334095</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20460,6 +20948,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>4361776</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -20667,6 +21160,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4452747</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20866,6 +21364,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>4310380</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21065,6 +21568,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4389064</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21272,6 +21780,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>4437590</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -21475,6 +21988,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4461296</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -21678,6 +22196,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4293917</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -21877,6 +22400,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>4476575</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22084,6 +22612,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4427584</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22267,6 +22800,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>4453983</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -22474,6 +23012,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>4425547</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -22653,6 +23196,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>4431961</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -22860,6 +23408,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>4288570</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23071,6 +23624,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>4444522</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23278,6 +23836,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4276422</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -23477,6 +24040,11 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>4483209</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -23672,6 +24240,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4451698</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -23863,6 +24436,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>4423216</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24058,6 +24636,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>4292047</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24261,6 +24844,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>4290271</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -24460,6 +25048,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>4409425</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -24647,6 +25240,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>4415684</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -24854,6 +25452,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>4455776</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25057,6 +25660,11 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>4241885</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -25260,6 +25868,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>4238371</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -25467,6 +26080,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>4279623</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -25670,6 +26288,11 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr">
+        <is>
+          <t>4284430</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -25853,6 +26476,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>4474939</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -25935,7 +26563,7 @@
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>Nema, savita/0000-0002-9570-6078; </t>
+          <t>Nema, savita/0000-0002-9570-6078;</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -26052,6 +26680,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>4295028</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -26239,6 +26872,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>4426253</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -26430,6 +27068,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>4351551</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -26641,6 +27284,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>4434725</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -26828,6 +27476,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4320000</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27031,6 +27684,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>4370427</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -27222,6 +27880,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -27429,6 +28088,11 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr">
+        <is>
+          <t>4282117</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -27636,6 +28300,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>4258750</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -27843,6 +28512,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>4257051</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -28042,6 +28716,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>4270154</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -28241,6 +28920,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>4296593</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -28436,6 +29120,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>4424796</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -28623,6 +29312,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>4348712</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -28806,6 +29500,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>4240658</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -29009,6 +29708,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>4448794</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -29216,6 +29920,11 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr">
+        <is>
+          <t>4442308</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -29419,6 +30128,11 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr">
+        <is>
+          <t>4082598</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -29626,6 +30340,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>4003637</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -29809,6 +30528,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>4074319</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -30008,6 +30732,11 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr">
+        <is>
+          <t>4009943</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -30207,6 +30936,11 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr">
+        <is>
+          <t>4060928</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -30402,6 +31136,11 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr">
+        <is>
+          <t>4088183</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -30585,6 +31324,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>4185782</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -30772,6 +31516,11 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr">
+        <is>
+          <t>4105168</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -30979,6 +31728,11 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr">
+        <is>
+          <t>4036567</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -31174,6 +31928,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>4084770</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -31385,6 +32144,11 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr">
+        <is>
+          <t>4072918</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -31584,6 +32348,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>4069370</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -31779,6 +32548,11 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr">
+        <is>
+          <t>4011933</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -31978,6 +32752,11 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr">
+        <is>
+          <t>4067394</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -32165,6 +32944,11 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>4065400</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -32360,6 +33144,11 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr">
+        <is>
+          <t>4034518</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -32559,6 +33348,11 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr">
+        <is>
+          <t>4063268</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -32754,6 +33548,11 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr">
+        <is>
+          <t>4176597</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -32949,6 +33748,11 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr">
+        <is>
+          <t>4091323</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -33152,6 +33956,11 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr">
+        <is>
+          <t>3989577</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -33359,6 +34168,11 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr">
+        <is>
+          <t>4004380</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -33550,6 +34364,11 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr">
+        <is>
+          <t>4014362</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -33749,6 +34568,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>4050171</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -33936,6 +34760,11 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr">
+        <is>
+          <t>4169728</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -34135,6 +34964,11 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr">
+        <is>
+          <t>4000574</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -34326,6 +35160,11 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr">
+        <is>
+          <t>4007754</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -34525,6 +35364,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>4212986</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -34724,6 +35568,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>4041550</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -34927,6 +35776,11 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr">
+        <is>
+          <t>4001810</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -35130,6 +35984,11 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr">
+        <is>
+          <t>4100954</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -35329,6 +36188,11 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr">
+        <is>
+          <t>4094778</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -35524,6 +36388,11 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr">
+        <is>
+          <t>3897624</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -35715,6 +36584,11 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr">
+        <is>
+          <t>3929666</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -35914,6 +36788,11 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr">
+        <is>
+          <t>3806128</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -36105,6 +36984,11 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr">
+        <is>
+          <t>3751582</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -36308,6 +37192,11 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr">
+        <is>
+          <t>3919385</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -36515,6 +37404,11 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr">
+        <is>
+          <t>3808711</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -36714,6 +37608,11 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr">
+        <is>
+          <t>3898939</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -36921,6 +37820,11 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr">
+        <is>
+          <t>3915036</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -37128,6 +38032,11 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr">
+        <is>
+          <t>3819399</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -37327,6 +38236,11 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr">
+        <is>
+          <t>3855723</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -37526,6 +38440,11 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr">
+        <is>
+          <t>3755682</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -37725,6 +38644,11 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr">
+        <is>
+          <t>3920447</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -37920,6 +38844,11 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr">
+        <is>
+          <t>3950242</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -38127,6 +39056,11 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr">
+        <is>
+          <t>3941741</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -38334,6 +39268,11 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr">
+        <is>
+          <t>3940693</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -38529,6 +39468,11 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr">
+        <is>
+          <t>3891803</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -38724,6 +39668,11 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr">
+        <is>
+          <t>3942441</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -38907,6 +39856,11 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr">
+        <is>
+          <t>3757569</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -39102,6 +40056,11 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr">
+        <is>
+          <t>3935662</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -39293,6 +40252,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>3931541</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -39484,6 +40448,11 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr">
+        <is>
+          <t>3817731</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -39691,6 +40660,11 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr">
+        <is>
+          <t>3815673</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -39894,6 +40868,11 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr">
+        <is>
+          <t>3853488</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -40101,6 +41080,11 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr">
+        <is>
+          <t>3945443</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -40300,6 +41284,11 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr">
+        <is>
+          <t>3947895</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -40499,6 +41488,11 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr">
+        <is>
+          <t>3911466</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -40690,6 +41684,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -40877,6 +41872,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -41076,6 +42072,11 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr">
+        <is>
+          <t>3933580</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -41275,6 +42276,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>3795647</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -41478,6 +42484,11 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr">
+        <is>
+          <t>3912928</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -41665,6 +42676,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -41868,6 +42880,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -42063,6 +43076,11 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr">
+        <is>
+          <t>3749299</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -42262,6 +43280,11 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr">
+        <is>
+          <t>3811824</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -42461,6 +43484,11 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr">
+        <is>
+          <t>3753540</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -42656,6 +43684,11 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr">
+        <is>
+          <t>3916840</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -42855,6 +43888,11 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr">
+        <is>
+          <t>3747437</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -43054,6 +44092,11 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr">
+        <is>
+          <t>3939498</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -43253,6 +44296,11 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr">
+        <is>
+          <t>3210661</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -43452,6 +44500,11 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr">
+        <is>
+          <t>3683359</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -43647,6 +44700,11 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr">
+        <is>
+          <t>3728185</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -43834,6 +44892,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>3715018</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -44037,6 +45100,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>3554320</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -44240,6 +45308,11 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr">
+        <is>
+          <t>3311808</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -44447,6 +45520,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -44630,6 +45704,11 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr">
+        <is>
+          <t>3242011</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -44825,6 +45904,11 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr">
+        <is>
+          <t>3546671</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -45012,6 +46096,11 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr">
+        <is>
+          <t>3613716</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -45203,6 +46292,11 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr">
+        <is>
+          <t>3718384</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -45394,6 +46488,11 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr">
+        <is>
+          <t>3435736</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -45585,6 +46684,11 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr">
+        <is>
+          <t>3220732</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -45784,6 +46888,11 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr">
+        <is>
+          <t>3222854</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -45975,6 +47084,11 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr">
+        <is>
+          <t>3329763</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -46182,6 +47296,11 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr">
+        <is>
+          <t>3048395</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -46389,6 +47508,11 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr">
+        <is>
+          <t>3725957</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -46588,6 +47712,11 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr">
+        <is>
+          <t>3393382</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -46787,6 +47916,11 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr">
+        <is>
+          <t>3725150</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -46986,6 +48120,11 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr">
+        <is>
+          <t>3052528</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -47193,6 +48332,11 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr">
+        <is>
+          <t>3062502</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -47396,6 +48540,11 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr">
+        <is>
+          <t>3710356</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -47603,6 +48752,11 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr">
+        <is>
+          <t>3569088</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -47810,6 +48964,11 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr">
+        <is>
+          <t>3713108</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -48013,6 +49172,11 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr">
+        <is>
+          <t>3224046</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -48204,6 +49368,11 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr">
+        <is>
+          <t>3540753</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -48403,6 +49572,11 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr">
+        <is>
+          <t>3262873</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -48602,6 +49776,11 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr">
+        <is>
+          <t>3225280</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -48793,6 +49972,11 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr">
+        <is>
+          <t>3602886</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -48992,6 +50176,11 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr">
+        <is>
+          <t>3064307</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -49199,6 +50388,11 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr">
+        <is>
+          <t>3293394</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -49398,6 +50592,11 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr">
+        <is>
+          <t>3433524</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -49593,6 +50792,11 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr">
+        <is>
+          <t>3385344</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -49800,6 +51004,11 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr">
+        <is>
+          <t>3340719</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -49999,6 +51208,11 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr">
+        <is>
+          <t>3732420</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -50206,6 +51420,11 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr">
+        <is>
+          <t>3435075</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -50397,6 +51616,11 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr">
+        <is>
+          <t>3446877</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -50596,6 +51820,11 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr">
+        <is>
+          <t>3055048</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -50787,6 +52016,11 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr">
+        <is>
+          <t>3632043</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -50994,6 +52228,11 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr">
+        <is>
+          <t>3334182</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -51197,6 +52436,11 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr">
+        <is>
+          <t>3425048</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -51396,6 +52640,11 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr">
+        <is>
+          <t>3566716</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
